--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -286,6 +286,27 @@
   </si>
   <si>
     <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>LE.2.00.---25.200220</t>
+  </si>
+  <si>
+    <t>Hàn lại chân connector</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi chân connector</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
   </si>
 </sst>
 </file>
@@ -12395,8 +12416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12628,7 +12649,9 @@
       </c>
       <c r="J6" s="64"/>
       <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
+      <c r="L6" s="66" t="s">
+        <v>83</v>
+      </c>
       <c r="M6" s="66" t="s">
         <v>76</v>
       </c>
@@ -12681,7 +12704,9 @@
       </c>
       <c r="J7" s="64"/>
       <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
+      <c r="L7" s="66" t="s">
+        <v>83</v>
+      </c>
       <c r="M7" s="66" t="s">
         <v>76</v>
       </c>
@@ -12710,23 +12735,51 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="61">
+        <v>44901</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44901</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="71">
+        <v>860157040208073</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="I8" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
+      <c r="O8" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
       <c r="U8" s="76"/>
@@ -13113,7 +13166,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13422,7 +13475,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13614,7 +13667,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14708,7 +14761,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14916,12 +14969,20 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="61">
+        <v>44901</v>
+      </c>
       <c r="C6" s="61"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="D6" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="71">
+        <v>202105191407643</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="62"/>
       <c r="I6" s="51"/>
       <c r="J6" s="64"/>
@@ -16973,8 +17034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17302,23 +17363,43 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="61">
+        <v>44901</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44901</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="71">
+        <v>864811036981889</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="62"/>
       <c r="I8" s="63"/>
       <c r="J8" s="64"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="M8" s="66" t="s">
+        <v>84</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
+      <c r="O8" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
       <c r="U8" s="76"/>
@@ -17673,7 +17754,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -18174,7 +18255,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -18206,7 +18287,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang12\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang12\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
+    <sheet name="ACT-01" sheetId="45" r:id="rId1"/>
     <sheet name="PhuKien" sheetId="55" r:id="rId2"/>
     <sheet name="TOP-1" sheetId="54" r:id="rId3"/>
     <sheet name="TG102E" sheetId="53" r:id="rId4"/>
@@ -23,6 +23,7 @@
     <sheet name="TongThang" sheetId="25" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ACT-01'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PhuKien!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102E!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TG102LE!$S$4:$S$51</definedName>
@@ -31,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'ACT-01'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">PhuKien!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TG102E!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="5">TG102LE!$S$4:$S$51</definedName>
@@ -40,14 +41,13 @@
     <definedName name="_xlnm.Criteria" localSheetId="7">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="8">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'TOP-1'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -313,6 +313,21 @@
   </si>
   <si>
     <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>28-B3-E9-F5-0C-00-00-22</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Đầu dò nhiệt bị đứt</t>
+  </si>
+  <si>
+    <t>Xử lý lại dây kết nối đầu dò nhiệt</t>
+  </si>
+  <si>
+    <t>Tùng</t>
   </si>
 </sst>
 </file>
@@ -766,30 +781,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,6 +798,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1150,39 +1165,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1227,58 +1244,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1303,49 +1320,69 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="61">
+        <v>44907</v>
+      </c>
       <c r="C6" s="61"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="D6" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="59" t="s">
+        <v>88</v>
+      </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>90</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1376,7 +1413,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1405,7 +1442,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +1471,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1463,7 +1500,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +1529,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1521,7 +1558,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1552,7 +1589,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1618,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1610,7 +1647,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1639,7 +1676,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1826,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2098,7 +2135,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2290,7 +2327,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3355,6 +3392,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3366,13 +3410,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3416,39 +3453,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3493,58 +3530,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3569,23 +3606,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3611,7 +3648,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3642,7 +3679,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3671,7 +3708,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3700,7 +3737,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3729,7 +3766,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3758,7 +3795,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3787,7 +3824,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3818,7 +3855,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3847,7 +3884,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3876,7 +3913,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3905,7 +3942,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5621,13 +5658,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5639,6 +5669,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5682,39 +5719,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5759,58 +5796,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5835,23 +5872,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5877,7 +5914,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5908,7 +5945,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5937,7 +5974,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5966,7 +6003,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5995,7 +6032,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6024,7 +6061,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6053,7 +6090,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6084,7 +6121,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6113,7 +6150,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6142,7 +6179,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6171,7 +6208,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7887,13 +7924,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7905,6 +7935,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7948,41 +7985,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8027,58 +8064,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8103,23 +8140,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8145,7 +8182,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8176,7 +8213,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8205,7 +8242,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8234,7 +8271,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8263,7 +8300,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8292,7 +8329,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8321,7 +8358,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8352,7 +8389,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8381,7 +8418,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8410,7 +8447,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8439,7 +8476,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10155,13 +10192,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10173,6 +10203,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10216,39 +10253,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10293,58 +10330,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10369,23 +10406,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10411,7 +10448,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10442,7 +10479,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10471,7 +10508,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10500,7 +10537,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10529,7 +10566,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10558,7 +10595,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10587,7 +10624,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10618,7 +10655,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10647,7 +10684,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10676,7 +10713,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10705,7 +10742,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12421,13 +12458,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12439,6 +12469,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12482,41 +12519,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12561,58 +12598,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12637,23 +12674,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12703,7 +12740,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12758,7 +12795,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12815,7 +12852,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12844,7 +12881,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12873,7 +12910,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12902,7 +12939,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12931,7 +12968,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12962,7 +12999,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12991,7 +13028,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13020,7 +13057,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13049,7 +13086,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14765,13 +14802,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14783,6 +14813,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14793,7 +14830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -14826,39 +14863,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="75"/>
       <c r="I2" s="48"/>
@@ -14903,58 +14940,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14979,23 +15016,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15047,7 +15084,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15078,7 +15115,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15107,7 +15144,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15136,7 +15173,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15165,7 +15202,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15194,7 +15231,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15223,7 +15260,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15254,7 +15291,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15283,7 +15320,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15312,7 +15349,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15341,7 +15378,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17057,13 +17094,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17075,6 +17105,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17118,41 +17155,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17197,58 +17234,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17273,23 +17310,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17343,7 +17380,7 @@
         <v>69</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17404,7 +17441,7 @@
         <v>69</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17453,7 +17490,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17482,7 +17519,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17511,7 +17548,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17540,7 +17577,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17569,7 +17606,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17600,7 +17637,7 @@
       <c r="R13" s="67"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17629,7 +17666,7 @@
       <c r="R14" s="67"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17658,7 +17695,7 @@
       <c r="R15" s="67"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17687,7 +17724,7 @@
       <c r="R16" s="67"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19403,13 +19440,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19421,6 +19451,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19464,39 +19501,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19541,58 +19578,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19617,23 +19654,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="92"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="98"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19659,7 +19696,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19690,7 +19727,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19719,7 +19756,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19748,7 +19785,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19777,7 +19814,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19806,7 +19843,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19835,7 +19872,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19866,7 +19903,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19895,7 +19932,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19924,7 +19961,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19953,7 +19990,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21184,6 +21221,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21195,13 +21239,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>NCFW, LK</t>
+  </si>
+  <si>
+    <t>Xử lý lại chân connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>?25.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị lỏng chân nguồn, lỗi bộ nhớ</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>13/12/2022</t>
   </si>
 </sst>
 </file>
@@ -12449,8 +12473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:R8"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12825,23 +12849,47 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="61">
+        <v>44907</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="71">
+        <v>868183038557984</v>
+      </c>
       <c r="F9" s="74"/>
-      <c r="G9" s="62"/>
+      <c r="G9" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="63" t="s">
+        <v>93</v>
+      </c>
       <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
+      <c r="K9" s="64" t="s">
+        <v>83</v>
+      </c>
       <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="M9" s="66" t="s">
+        <v>76</v>
+      </c>
       <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
+      <c r="O9" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
       <c r="U9" s="85"/>
@@ -13167,7 +13215,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13668,7 +13716,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13700,7 +13748,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14402,9 +14450,7 @@
       <c r="I61" s="52"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L61" s="39"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
       <c r="O61" s="32"/>
@@ -14427,9 +14473,7 @@
       <c r="I62" s="52"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L62" s="39"/>
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
@@ -14452,9 +14496,7 @@
       <c r="I63" s="52"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L63" s="39"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
@@ -14477,9 +14519,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L64" s="39"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
@@ -14502,9 +14542,7 @@
       <c r="I65" s="52"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L65" s="39"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
@@ -14793,8 +14831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15006,7 +15044,7 @@
         <v>44901</v>
       </c>
       <c r="C6" s="61">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>78</v>
@@ -17086,7 +17124,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17463,23 +17501,51 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="B9" s="61">
+        <v>44907</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44907</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="71">
+        <v>868345035626381</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>88</v>
+      </c>
       <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
+      <c r="O9" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>87</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
       <c r="U9" s="85"/>
@@ -17492,24 +17558,54 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
+      <c r="B10" s="61">
+        <v>44907</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44907</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="71">
+        <v>868926033943744</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="T10" s="69"/>
       <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
@@ -17521,13 +17617,21 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="61">
+        <v>44907</v>
+      </c>
       <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="73"/>
+      <c r="D11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="71">
+        <v>868926033962751</v>
+      </c>
+      <c r="F11" s="74"/>
+      <c r="G11" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="74"/>
       <c r="I11" s="63"/>
       <c r="J11" s="64"/>
       <c r="K11" s="71"/>
@@ -17550,17 +17654,29 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="61">
+        <v>44907</v>
+      </c>
       <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="73"/>
+      <c r="D12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="71">
+        <v>864811037105942</v>
+      </c>
+      <c r="F12" s="74"/>
+      <c r="G12" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="74"/>
       <c r="I12" s="63"/>
       <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
+      <c r="K12" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="66" t="s">
+        <v>77</v>
+      </c>
       <c r="M12" s="39"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -17869,7 +17985,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -18146,7 +18262,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18274,7 +18390,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18338,7 +18454,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -336,7 +336,22 @@
     <t>125.212.203.114,14747</t>
   </si>
   <si>
-    <t>13/12/2022</t>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200409</t>
+  </si>
+  <si>
+    <t>Hàn lại chân connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
   </si>
 </sst>
 </file>
@@ -790,30 +805,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -831,6 +822,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1174,39 +1189,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1251,58 +1266,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1327,23 +1342,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,7 +1384,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1400,7 +1415,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1429,7 +1444,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1473,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1487,7 +1502,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1516,7 +1531,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1560,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1576,7 +1591,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1605,7 +1620,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1634,7 +1649,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1663,7 +1678,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3379,6 +3394,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3390,13 +3412,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3440,39 +3455,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3517,58 +3532,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3593,23 +3608,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3635,7 +3650,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3666,7 +3681,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3695,7 +3710,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3724,7 +3739,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3753,7 +3768,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3782,7 +3797,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3811,7 +3826,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3842,7 +3857,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3871,7 +3886,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3900,7 +3915,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3929,7 +3944,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5645,13 +5660,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5663,6 +5671,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5706,39 +5721,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5783,58 +5798,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5859,23 +5874,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5901,7 +5916,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5932,7 +5947,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5961,7 +5976,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5990,7 +6005,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6019,7 +6034,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6048,7 +6063,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6077,7 +6092,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6108,7 +6123,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6137,7 +6152,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6166,7 +6181,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6195,7 +6210,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7911,13 +7926,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7929,6 +7937,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7972,41 +7987,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8051,58 +8066,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8127,23 +8142,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8169,7 +8184,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8200,7 +8215,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8229,7 +8244,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8258,7 +8273,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8287,7 +8302,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8316,7 +8331,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8345,7 +8360,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8376,7 +8391,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8405,7 +8420,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8434,7 +8449,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8463,7 +8478,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10179,13 +10194,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10197,6 +10205,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10240,39 +10255,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10317,58 +10332,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10393,23 +10408,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10435,7 +10450,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10466,7 +10481,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10495,7 +10510,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10524,7 +10539,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10553,7 +10568,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10582,7 +10597,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10611,7 +10626,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10642,7 +10657,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10671,7 +10686,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10700,7 +10715,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10729,7 +10744,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12445,13 +12460,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12463,6 +12471,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12473,8 +12488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12506,41 +12521,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12585,58 +12600,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12661,23 +12676,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12690,7 +12705,7 @@
       <c r="C6" s="61">
         <v>44896</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="71">
@@ -12727,7 +12742,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12745,7 +12760,7 @@
       <c r="C7" s="61">
         <v>44896</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="71">
@@ -12782,7 +12797,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12798,7 +12813,7 @@
       <c r="C8" s="61">
         <v>44902</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="71">
@@ -12839,7 +12854,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12852,10 +12867,10 @@
       <c r="B9" s="61">
         <v>44907</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="61">
+        <v>44912</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="71">
@@ -12869,13 +12884,15 @@
       <c r="I9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="64"/>
+      <c r="J9" s="64" t="s">
+        <v>82</v>
+      </c>
       <c r="K9" s="64" t="s">
         <v>83</v>
       </c>
       <c r="L9" s="66"/>
       <c r="M9" s="66" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N9" s="64"/>
       <c r="O9" s="64" t="s">
@@ -12885,14 +12902,14 @@
         <v>68</v>
       </c>
       <c r="Q9" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R9" s="67" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12902,26 +12919,54 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="61">
+        <v>44912</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44912</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="71">
+        <v>868183033796041</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="I10" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>98</v>
+      </c>
       <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="67"/>
+      <c r="O10" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>99</v>
+      </c>
       <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12950,7 +12995,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12979,7 +13024,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13010,7 +13055,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13039,7 +13084,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13068,7 +13113,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13097,7 +13142,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13215,7 +13260,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13247,7 +13292,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13279,7 +13324,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13556,7 +13601,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13684,7 +13729,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13716,7 +13761,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13748,7 +13793,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14803,13 +14848,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14821,6 +14859,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14831,7 +14876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -14864,39 +14909,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="75"/>
       <c r="I2" s="48"/>
@@ -14941,58 +14986,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15017,23 +15062,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15085,7 +15130,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15116,7 +15161,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15145,7 +15190,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15174,7 +15219,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15203,7 +15248,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15232,7 +15277,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15261,7 +15306,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15292,7 +15337,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15321,7 +15366,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15350,7 +15395,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15379,7 +15424,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17095,13 +17140,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17113,6 +17151,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17124,7 +17169,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17156,41 +17201,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17235,58 +17280,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17311,23 +17356,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17381,7 +17426,7 @@
         <v>69</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17442,7 +17487,7 @@
         <v>69</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17491,7 +17536,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17548,7 +17593,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17607,7 +17652,7 @@
         <v>69</v>
       </c>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17644,7 +17689,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17685,7 +17730,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17697,12 +17742,20 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="61">
+        <v>44912</v>
+      </c>
       <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="71"/>
+      <c r="D13" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="71">
+        <v>864811036970122</v>
+      </c>
       <c r="F13" s="74"/>
-      <c r="G13" s="62"/>
+      <c r="G13" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" s="62"/>
       <c r="I13" s="63"/>
       <c r="J13" s="64"/>
@@ -17716,7 +17769,7 @@
       <c r="R13" s="67"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17726,12 +17779,20 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="61">
+        <v>44912</v>
+      </c>
       <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="71">
+        <v>868926033982098</v>
+      </c>
       <c r="F14" s="74"/>
-      <c r="G14" s="62"/>
+      <c r="G14" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H14" s="74"/>
       <c r="I14" s="63"/>
       <c r="J14" s="64"/>
@@ -17745,7 +17806,7 @@
       <c r="R14" s="67"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17755,12 +17816,20 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="61"/>
+      <c r="B15" s="61">
+        <v>44912</v>
+      </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="71"/>
+      <c r="D15" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="71">
+        <v>868926033920007</v>
+      </c>
       <c r="F15" s="74"/>
-      <c r="G15" s="62"/>
+      <c r="G15" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H15" s="74"/>
       <c r="I15" s="63"/>
       <c r="J15" s="64"/>
@@ -17774,7 +17843,7 @@
       <c r="R15" s="67"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17784,26 +17853,52 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="71"/>
+      <c r="B16" s="61">
+        <v>44912</v>
+      </c>
+      <c r="C16" s="61">
+        <v>44912</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="71">
+        <v>868926033919314</v>
+      </c>
       <c r="F16" s="74"/>
-      <c r="G16" s="62"/>
+      <c r="G16" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
+      <c r="I16" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="65" t="s">
+        <v>70</v>
+      </c>
       <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
+      <c r="M16" s="66" t="s">
+        <v>96</v>
+      </c>
       <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="67"/>
+      <c r="O16" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="67" t="s">
+        <v>36</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17921,7 +18016,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -18358,7 +18453,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -18454,7 +18549,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -19519,13 +19614,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19537,6 +19625,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19580,39 +19675,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19657,58 +19752,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19733,23 +19828,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="92"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="98"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19775,7 +19870,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19806,7 +19901,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19835,7 +19930,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19864,7 +19959,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19893,7 +19988,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19922,7 +20017,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19951,7 +20046,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19982,7 +20077,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20011,7 +20106,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20040,7 +20135,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20069,7 +20164,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21300,6 +21395,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21311,13 +21413,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
   </si>
 </sst>
 </file>
@@ -805,6 +811,30 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,30 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,39 +1195,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1266,58 +1272,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1342,23 +1348,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1390,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1415,7 +1421,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1444,7 +1450,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1473,7 +1479,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1502,7 +1508,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +1537,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1560,7 +1566,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1591,7 +1597,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1620,7 +1626,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1649,7 +1655,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1684,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3394,13 +3400,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3412,6 +3411,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3455,39 +3461,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3532,58 +3538,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3608,23 +3614,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3650,7 +3656,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3681,7 +3687,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3710,7 +3716,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3739,7 +3745,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3768,7 +3774,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3797,7 +3803,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3826,7 +3832,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3857,7 +3863,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3886,7 +3892,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3915,7 +3921,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3944,7 +3950,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5660,6 +5666,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5671,13 +5684,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5721,39 +5727,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5798,58 +5804,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5874,23 +5880,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5916,7 +5922,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5947,7 +5953,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5976,7 +5982,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6005,7 +6011,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6034,7 +6040,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6063,7 +6069,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6092,7 +6098,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6123,7 +6129,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6152,7 +6158,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6181,7 +6187,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6210,7 +6216,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7926,6 +7932,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7937,13 +7950,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7987,41 +7993,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8066,58 +8072,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8142,23 +8148,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,7 +8190,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8215,7 +8221,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8244,7 +8250,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8273,7 +8279,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8302,7 +8308,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8331,7 +8337,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8360,7 +8366,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8391,7 +8397,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8420,7 +8426,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8449,7 +8455,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8478,7 +8484,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10194,6 +10200,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10205,13 +10218,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10255,39 +10261,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10332,58 +10338,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10408,23 +10414,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10450,7 +10456,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10481,7 +10487,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10510,7 +10516,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10539,7 +10545,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10568,7 +10574,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10597,7 +10603,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10626,7 +10632,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10657,7 +10663,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10686,7 +10692,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10715,7 +10721,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10744,7 +10750,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12460,6 +12466,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12471,13 +12484,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12488,7 +12494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9:R9"/>
     </sheetView>
   </sheetViews>
@@ -12521,41 +12527,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12600,58 +12606,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12676,23 +12682,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12742,7 +12748,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12797,7 +12803,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12854,7 +12860,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12909,7 +12915,7 @@
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12966,7 +12972,7 @@
       </c>
       <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12995,7 +13001,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13024,7 +13030,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13055,7 +13061,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13084,7 +13090,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13113,7 +13119,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13142,7 +13148,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14848,6 +14854,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14859,13 +14872,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14909,39 +14915,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="75"/>
       <c r="I2" s="48"/>
@@ -14986,58 +14992,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15062,23 +15068,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15130,7 +15136,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15161,7 +15167,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15190,7 +15196,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15219,7 +15225,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15248,7 +15254,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15277,7 +15283,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15306,7 +15312,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15337,7 +15343,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15366,7 +15372,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15395,7 +15401,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15424,7 +15430,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17140,6 +17146,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17151,13 +17164,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17168,8 +17174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17201,41 +17207,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17280,58 +17286,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17356,23 +17362,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17385,7 +17391,7 @@
       <c r="C6" s="61">
         <v>44896</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="71">
@@ -17426,7 +17432,7 @@
         <v>69</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17444,7 +17450,7 @@
       <c r="C7" s="61">
         <v>44896</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="71">
@@ -17487,7 +17493,7 @@
         <v>69</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17503,7 +17509,7 @@
       <c r="C8" s="61">
         <v>44902</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="71">
@@ -17536,7 +17542,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17552,7 +17558,7 @@
       <c r="C9" s="61">
         <v>44907</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="71">
@@ -17593,7 +17599,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17609,7 +17615,7 @@
       <c r="C10" s="61">
         <v>44907</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="71">
@@ -17652,7 +17658,7 @@
         <v>69</v>
       </c>
       <c r="T10" s="69"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17665,8 +17671,10 @@
       <c r="B11" s="61">
         <v>44907</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59" t="s">
+      <c r="C11" s="61">
+        <v>44917</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="71">
@@ -17677,19 +17685,39 @@
         <v>64</v>
       </c>
       <c r="H11" s="74"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
+      <c r="I11" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="T11" s="69"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17702,8 +17730,10 @@
       <c r="B12" s="61">
         <v>44907</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="61">
+        <v>44917</v>
+      </c>
+      <c r="D12" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="71">
@@ -17714,23 +17744,39 @@
         <v>64</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>71</v>
+      </c>
       <c r="K12" s="64" t="s">
         <v>89</v>
       </c>
       <c r="L12" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
+      <c r="M12" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="T12" s="69"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17745,7 +17791,9 @@
       <c r="B13" s="61">
         <v>44912</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44917</v>
+      </c>
       <c r="D13" s="62" t="s">
         <v>65</v>
       </c>
@@ -17757,19 +17805,39 @@
         <v>64</v>
       </c>
       <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="3"/>
+      <c r="I13" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="T13" s="69"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17782,7 +17850,9 @@
       <c r="B14" s="61">
         <v>44912</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44917</v>
+      </c>
       <c r="D14" s="62" t="s">
         <v>65</v>
       </c>
@@ -17794,19 +17864,39 @@
         <v>64</v>
       </c>
       <c r="H14" s="74"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
+      <c r="I14" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>66</v>
+      </c>
       <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="3"/>
+      <c r="O14" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="T14" s="69"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17819,7 +17909,9 @@
       <c r="B15" s="61">
         <v>44912</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44917</v>
+      </c>
       <c r="D15" s="62" t="s">
         <v>65</v>
       </c>
@@ -17831,19 +17923,39 @@
         <v>64</v>
       </c>
       <c r="H15" s="74"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="3"/>
+      <c r="I15" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17898,7 +18010,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18080,7 +18192,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -18357,7 +18469,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18485,7 +18597,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18549,7 +18661,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -19614,6 +19726,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19625,13 +19744,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19675,39 +19787,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19752,58 +19864,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="92" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19828,23 +19940,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="84"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="92"/>
       <c r="P5" s="98"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="97"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19870,7 +19982,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19901,7 +20013,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19930,7 +20042,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19959,7 +20071,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19988,7 +20100,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20017,7 +20129,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20046,7 +20158,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20077,7 +20189,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20106,7 +20218,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20135,7 +20247,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20164,7 +20276,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21395,13 +21507,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21413,6 +21518,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="120">
   <si>
     <t>STT</t>
   </si>
@@ -371,6 +371,42 @@
   <si>
     <t>SL: 3</t>
   </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Thiếu MCU + Cầu chì</t>
+  </si>
+  <si>
+    <t>Hàn MCU + cầu chì</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Imei không trùng module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GSM, lỗi GPS</t>
+  </si>
+  <si>
+    <t>Nạp lại FW module GSM/GPS, cấu hình lại baudrate GPS</t>
+  </si>
+  <si>
+    <t>GSM,GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị không quẹt được thẻ RFID</t>
+  </si>
+  <si>
+    <t>Thay thạch anh</t>
+  </si>
 </sst>
 </file>
 
@@ -572,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,6 +853,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -835,32 +895,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,41 +1240,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1280,58 +1319,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
@@ -1356,23 +1395,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="80" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,7 +1443,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="81"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1441,7 +1480,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="81"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1476,7 +1515,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="81"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1511,7 +1550,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="81"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1546,7 +1585,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="81"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1581,7 +1620,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="81"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1616,7 +1655,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="81"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1653,7 +1692,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="81"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1688,7 +1727,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="81"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +1762,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1752,7 +1791,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3468,13 +3507,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3486,6 +3518,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3529,39 +3568,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3606,58 +3645,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3682,23 +3721,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,7 +3769,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3767,7 +3806,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3802,7 +3841,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3831,7 +3870,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3860,7 +3899,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3889,7 +3928,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3918,7 +3957,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3949,7 +3988,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3978,7 +4017,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4007,7 +4046,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4036,7 +4075,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5752,6 +5791,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5763,13 +5809,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5813,39 +5852,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5890,58 +5929,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -5966,23 +6005,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,7 +6053,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6051,7 +6090,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6086,7 +6125,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6121,7 +6160,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6156,7 +6195,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6191,7 +6230,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6226,7 +6265,7 @@
       <c r="R12" s="64"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6257,7 +6296,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6286,7 +6325,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6315,7 +6354,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6344,7 +6383,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8060,6 +8099,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8071,13 +8117,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8088,8 +8127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8121,41 +8160,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8200,58 +8239,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -8276,23 +8315,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8342,7 +8381,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8397,7 +8436,7 @@
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8454,7 +8493,7 @@
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8509,7 +8548,7 @@
       </c>
       <c r="S9" s="68"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8566,7 +8605,7 @@
       </c>
       <c r="S10" s="68"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8601,7 +8640,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="68"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8636,7 +8675,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8673,7 +8712,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8708,7 +8747,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8731,19 +8770,35 @@
       <c r="F15" s="47"/>
       <c r="G15" s="37"/>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8766,19 +8821,35 @@
       <c r="F16" s="47"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="39" t="s">
+        <v>114</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8801,15 +8872,32 @@
       <c r="F17" s="47"/>
       <c r="G17" s="37"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
+      <c r="I17" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="97" t="s">
+        <v>83</v>
+      </c>
       <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="M17" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="66"/>
@@ -8833,16 +8921,32 @@
       <c r="F18" s="47"/>
       <c r="G18" s="37"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="M18" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -8866,16 +8970,32 @@
       <c r="F19" s="47"/>
       <c r="G19" s="37"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="M19" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
+      <c r="O19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="65" t="s">
@@ -8920,7 +9040,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8958,7 +9078,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9120,16 +9240,32 @@
       <c r="F26" s="47"/>
       <c r="G26" s="37"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
+      <c r="I26" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="M26" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
+      <c r="O26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="13"/>
       <c r="U26" s="3" t="s">
@@ -9137,7 +9273,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -9158,16 +9294,34 @@
       <c r="F27" s="47"/>
       <c r="G27" s="37"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="I27" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="2"/>
+      <c r="O27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="13"/>
       <c r="U27" s="3" t="s">
@@ -9175,7 +9329,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -9213,7 +9367,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -9327,7 +9481,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9403,7 +9557,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -9517,7 +9671,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -9555,7 +9709,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9908,7 +10062,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -10610,6 +10764,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10621,13 +10782,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10671,39 +10825,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="71"/>
       <c r="I2" s="48"/>
@@ -10748,58 +10902,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10824,23 +10978,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10892,7 +11046,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10929,7 +11083,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10964,7 +11118,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10999,7 +11153,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11034,7 +11188,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11069,7 +11223,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11104,7 +11258,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11141,7 +11295,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11176,7 +11330,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11211,7 +11365,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11246,7 +11400,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13022,6 +13176,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13033,13 +13194,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13083,41 +13237,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13162,58 +13316,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -13238,23 +13392,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13308,7 +13462,7 @@
         <v>69</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13369,7 +13523,7 @@
         <v>69</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13418,7 +13572,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13475,7 +13629,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13534,7 +13688,7 @@
         <v>69</v>
       </c>
       <c r="T10" s="66"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13593,7 +13747,7 @@
         <v>69</v>
       </c>
       <c r="T11" s="66"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13652,7 +13806,7 @@
         <v>69</v>
       </c>
       <c r="T12" s="66"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13713,7 +13867,7 @@
         <v>69</v>
       </c>
       <c r="T13" s="66"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13772,7 +13926,7 @@
         <v>69</v>
       </c>
       <c r="T14" s="66"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13831,7 +13985,7 @@
         <v>69</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13886,7 +14040,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15638,6 +15792,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15649,13 +15810,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15699,41 +15853,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15778,58 +15932,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15854,23 +16008,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="90"/>
       <c r="P5" s="96"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15896,7 +16050,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15927,7 +16081,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15956,7 +16110,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15985,7 +16139,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -16014,7 +16168,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -16043,7 +16197,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -16072,7 +16226,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -16103,7 +16257,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -16132,7 +16286,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -16161,7 +16315,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16190,7 +16344,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17421,13 +17575,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17439,6 +17586,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="56" r:id="rId1"/>
@@ -853,28 +853,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,11 +874,32 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B15"/>
+      <selection activeCell="B6" sqref="B6:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1240,41 +1240,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1319,58 +1319,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
@@ -1395,23 +1395,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="80" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="81"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1480,7 +1480,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="81"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="81"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="81"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="81"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="81"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="81"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1692,7 +1692,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="81"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="81"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3507,6 +3507,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3518,13 +3525,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3536,7 +3536,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3568,39 +3568,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3645,58 +3645,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3721,23 +3721,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,7 +3769,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3806,7 +3806,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3988,7 +3988,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4017,7 +4017,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5791,13 +5791,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5809,6 +5802,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5820,7 +5820,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5852,39 +5852,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5929,58 +5929,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6005,23 +6005,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6053,7 +6053,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6090,7 +6090,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6195,7 +6195,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="R12" s="64"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6296,7 +6296,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6354,7 +6354,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8099,13 +8099,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8117,6 +8110,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8127,8 +8127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView showZeros="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8160,41 +8160,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8239,58 +8239,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -8315,23 +8315,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="S9" s="68"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="S10" s="68"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="68"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8675,7 +8675,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8712,7 +8712,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8878,7 +8878,7 @@
       <c r="J17" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="97" t="s">
+      <c r="K17" s="82" t="s">
         <v>83</v>
       </c>
       <c r="L17" s="39"/>
@@ -10764,13 +10764,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10782,6 +10775,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10792,8 +10792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showZeros="0" topLeftCell="K5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10825,39 +10825,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="71"/>
       <c r="I2" s="48"/>
@@ -10902,58 +10902,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10978,23 +10978,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11083,7 +11083,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11118,7 +11118,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11153,7 +11153,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11188,7 +11188,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11223,7 +11223,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11258,7 +11258,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11295,7 +11295,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11330,7 +11330,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11365,7 +11365,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11400,7 +11400,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13176,13 +13176,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13194,6 +13187,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13204,8 +13204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13237,41 +13237,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13316,58 +13316,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -13392,23 +13392,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13462,7 +13462,7 @@
         <v>69</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13523,7 +13523,7 @@
         <v>69</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>69</v>
       </c>
       <c r="T10" s="66"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>69</v>
       </c>
       <c r="T11" s="66"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>69</v>
       </c>
       <c r="T12" s="66"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13867,7 +13867,7 @@
         <v>69</v>
       </c>
       <c r="T13" s="66"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>69</v>
       </c>
       <c r="T14" s="66"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>69</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15792,13 +15792,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15810,6 +15803,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15853,41 +15853,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15932,58 +15932,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -16008,23 +16008,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16050,7 +16050,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -16081,7 +16081,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -16110,7 +16110,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -16139,7 +16139,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -16168,7 +16168,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -16197,7 +16197,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -16226,7 +16226,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -16257,7 +16257,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -16286,7 +16286,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -16315,7 +16315,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16344,7 +16344,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17575,6 +17575,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17586,13 +17593,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="56" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -406,6 +406,48 @@
   </si>
   <si>
     <t>Thay thạch anh</t>
+  </si>
+  <si>
+    <t>Bung via connector I/O</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector</t>
+  </si>
+  <si>
+    <t>Lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn, không quẹt được thẻ RFID</t>
+  </si>
+  <si>
+    <t>Xử lý lại khối nguồn, hàn lại IC quẹt thẻ RFID</t>
+  </si>
+  <si>
+    <t>Thiếu MCU, IC nguồn 4v4, còi, diode quá áp, cầu chì</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn 3v3</t>
+  </si>
+  <si>
+    <t>Thiếu MCU, mất nguồn, sai FW</t>
+  </si>
+  <si>
+    <t>Hàn thêm MCU, xử lý lại nguồn, nạp lại FW</t>
+  </si>
+  <si>
+    <t>MCU,NG,NCFW</t>
   </si>
 </sst>
 </file>
@@ -8127,8 +8169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:S38"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8628,16 +8670,32 @@
       <c r="F11" s="59"/>
       <c r="G11" s="59"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="67"/>
+      <c r="I11" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
+      <c r="M11" s="63" t="s">
+        <v>124</v>
+      </c>
       <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="64"/>
+      <c r="O11" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>35</v>
+      </c>
       <c r="S11" s="68"/>
       <c r="T11" s="66"/>
       <c r="U11" s="92"/>
@@ -8663,7 +8721,9 @@
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
@@ -8695,21 +8755,37 @@
         <v>44</v>
       </c>
       <c r="E13" s="67">
-        <v>862205051298654</v>
+        <v>868183033859054</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>121</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
       <c r="U13" s="92"/>
@@ -9078,7 +9154,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9116,7 +9192,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9273,7 +9349,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -9329,7 +9405,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -9388,16 +9464,32 @@
       <c r="F29" s="47"/>
       <c r="G29" s="37"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="1"/>
+      <c r="I29" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="L29" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>132</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2"/>
+      <c r="O29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="13"/>
       <c r="U29" s="3" t="s">
@@ -9405,7 +9497,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9464,16 +9556,30 @@
       <c r="F31" s="47"/>
       <c r="G31" s="37"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="1"/>
+      <c r="I31" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="M31" s="39" t="s">
+        <v>130</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="2"/>
+      <c r="O31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S31" s="3"/>
       <c r="T31" s="13"/>
       <c r="U31" s="3" t="s">
@@ -9481,7 +9587,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9503,7 +9609,9 @@
       <c r="G32" s="37"/>
       <c r="H32" s="1"/>
       <c r="I32" s="51"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="39"/>
       <c r="M32" s="39"/>
@@ -9611,21 +9719,37 @@
         <v>44</v>
       </c>
       <c r="E35" s="67">
-        <v>868183038478751</v>
+        <v>867717030431424</v>
       </c>
       <c r="F35" s="47"/>
       <c r="G35" s="37"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
+      <c r="M35" s="39" t="s">
+        <v>127</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="2"/>
+      <c r="O35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S35" s="3"/>
       <c r="T35" s="13"/>
       <c r="U35" s="3" t="s">
@@ -9633,7 +9757,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9656,7 +9780,9 @@
       <c r="H36" s="1"/>
       <c r="I36" s="51"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
       <c r="N36" s="1"/>
@@ -9679,7 +9805,9 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="58">
+        <v>44921</v>
+      </c>
       <c r="C37" s="54"/>
       <c r="D37" s="59" t="s">
         <v>44</v>
@@ -9709,7 +9837,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9827,7 +9955,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -10062,7 +10190,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -13204,7 +13332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="138">
   <si>
     <t>STT</t>
   </si>
@@ -448,6 +448,18 @@
   </si>
   <si>
     <t>MCU,NG,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị chập module GSM</t>
+  </si>
+  <si>
+    <t>Thay module GSM (module cũ)</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033803870</t>
+  </si>
+  <si>
+    <t>Thế module GSM/GPS qua Imei: 868183037834327</t>
   </si>
 </sst>
 </file>
@@ -898,6 +910,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,30 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,41 +1294,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1361,58 +1373,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
@@ -1437,23 +1449,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="80" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1497,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="81"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1522,7 +1534,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="81"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1557,7 +1569,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="81"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1592,7 +1604,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="81"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1627,7 +1639,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="81"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1662,7 +1674,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="81"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1697,7 +1709,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="81"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1734,7 +1746,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="81"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1769,7 +1781,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="81"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1804,7 +1816,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1833,7 +1845,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3549,13 +3561,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3567,6 +3572,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3610,39 +3622,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3687,58 +3699,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3763,23 +3775,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3811,7 +3823,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3848,7 +3860,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3883,7 +3895,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3912,7 +3924,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3941,7 +3953,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3970,7 +3982,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3999,7 +4011,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4030,7 +4042,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4059,7 +4071,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4088,7 +4100,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4117,7 +4129,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5833,6 +5845,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5844,13 +5863,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5894,39 +5906,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5971,58 +5983,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6047,23 +6059,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6095,7 +6107,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6132,7 +6144,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6167,7 +6179,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6202,7 +6214,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6237,7 +6249,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6272,7 +6284,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6307,7 +6319,7 @@
       <c r="R12" s="64"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6338,7 +6350,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6367,7 +6379,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6396,7 +6408,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6425,7 +6437,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8141,6 +8153,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8152,13 +8171,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8169,8 +8181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8202,41 +8214,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8281,58 +8293,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -8357,23 +8369,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8423,7 +8435,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8478,7 +8490,7 @@
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8535,7 +8547,7 @@
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8590,7 +8602,7 @@
       </c>
       <c r="S9" s="68"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8647,7 +8659,7 @@
       </c>
       <c r="S10" s="68"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8698,7 +8710,7 @@
       </c>
       <c r="S11" s="68"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8735,7 +8747,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8788,7 +8800,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8823,7 +8835,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8874,7 +8886,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8925,7 +8937,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9154,7 +9166,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9405,7 +9417,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -9425,17 +9437,35 @@
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="L28" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="2"/>
+      <c r="O28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="13"/>
       <c r="U28" s="3" t="s">
@@ -9614,7 +9644,9 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
+      <c r="M32" s="39" t="s">
+        <v>137</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="39"/>
@@ -9837,7 +9869,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10892,6 +10924,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10903,13 +10942,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10953,39 +10985,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="71"/>
       <c r="I2" s="48"/>
@@ -11030,58 +11062,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -11106,23 +11138,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11174,7 +11206,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11211,7 +11243,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11246,7 +11278,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11281,7 +11313,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11316,7 +11348,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11351,7 +11383,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11386,7 +11418,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11423,7 +11455,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11458,7 +11490,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11493,7 +11525,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11528,7 +11560,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13304,6 +13336,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13315,13 +13354,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13365,41 +13397,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13444,58 +13476,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -13520,23 +13552,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13590,7 +13622,7 @@
         <v>69</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13651,7 +13683,7 @@
         <v>69</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13700,7 +13732,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13757,7 +13789,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13816,7 +13848,7 @@
         <v>69</v>
       </c>
       <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13875,7 +13907,7 @@
         <v>69</v>
       </c>
       <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13934,7 +13966,7 @@
         <v>69</v>
       </c>
       <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13995,7 +14027,7 @@
         <v>69</v>
       </c>
       <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14054,7 +14086,7 @@
         <v>69</v>
       </c>
       <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14113,7 +14145,7 @@
         <v>69</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14168,7 +14200,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15920,6 +15952,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15931,13 +15970,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15981,41 +16013,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -16060,58 +16092,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -16136,23 +16168,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="83"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="91"/>
       <c r="P5" s="97"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16178,7 +16210,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -16209,7 +16241,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -16238,7 +16270,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -16267,7 +16299,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -16296,7 +16328,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -16325,7 +16357,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -16354,7 +16386,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -16385,7 +16417,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -16414,7 +16446,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -16443,7 +16475,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16472,7 +16504,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17703,13 +17735,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17721,6 +17746,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -22,14 +22,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102LE!$S$4:$S$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102LE!$S$4:$S$53</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="5">TG102V!$S$4:$S$51</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="146">
   <si>
     <t>STT</t>
   </si>
@@ -460,6 +460,30 @@
   </si>
   <si>
     <t>Thế module GSM/GPS qua Imei: 868183037834327</t>
+  </si>
+  <si>
+    <t>Main chập nổ thiếu nhiều LK</t>
+  </si>
+  <si>
+    <t>NG,LK</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Thiết bị chập MCU linh, tụ trở hàn sai, mất ID</t>
+  </si>
+  <si>
+    <t>Thay MCU, xử lý lại main, nạp lại FW module GSM</t>
+  </si>
+  <si>
+    <t>MCU,NCFW,LK</t>
+  </si>
+  <si>
+    <t>Sai Imei</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị</t>
   </si>
 </sst>
 </file>
@@ -910,30 +934,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,6 +951,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1294,41 +1318,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1373,58 +1397,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
@@ -1449,23 +1473,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="80" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1521,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="81"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1534,7 +1558,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="81"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1569,7 +1593,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="81"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1604,7 +1628,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="81"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1639,7 +1663,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="81"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1674,7 +1698,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="81"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1709,7 +1733,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="81"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1746,7 +1770,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="81"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1781,7 +1805,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="81"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1816,7 +1840,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +1869,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3561,6 +3585,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3572,13 +3603,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3622,39 +3646,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3699,58 +3723,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3775,23 +3799,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3823,7 +3847,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3860,7 +3884,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3895,7 +3919,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3924,7 +3948,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3953,7 +3977,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3982,7 +4006,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4011,7 +4035,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4042,7 +4066,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4071,7 +4095,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4100,7 +4124,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4129,7 +4153,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5845,13 +5869,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5863,6 +5880,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5906,39 +5930,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5983,58 +6007,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6059,23 +6083,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6107,7 +6131,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6144,7 +6168,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6179,7 +6203,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6214,7 +6238,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6249,7 +6273,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6284,7 +6308,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6319,7 +6343,7 @@
       <c r="R12" s="64"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6350,7 +6374,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6379,7 +6403,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6408,7 +6432,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6437,7 +6461,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8153,13 +8177,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8171,6 +8188,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8179,10 +8203,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
+  <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8214,41 +8238,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8293,58 +8317,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -8369,23 +8393,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8435,7 +8459,7 @@
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8490,7 +8514,7 @@
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8547,7 +8571,7 @@
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8602,7 +8626,7 @@
       </c>
       <c r="S9" s="68"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8659,7 +8683,7 @@
       </c>
       <c r="S10" s="68"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8710,7 +8734,7 @@
       </c>
       <c r="S11" s="68"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8747,7 +8771,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8800,7 +8824,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8835,7 +8859,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8886,7 +8910,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8937,7 +8961,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9111,24 +9135,40 @@
       <c r="F20" s="47"/>
       <c r="G20" s="37"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="M20" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
+      <c r="O20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>7</v>
+        <f>COUNTIF($Q$6:$Q$53,"PM")</f>
+        <v>8</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -9149,24 +9189,40 @@
       <c r="F21" s="47"/>
       <c r="G21" s="37"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="M21" s="39" t="s">
+        <v>124</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
+      <c r="O21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>9</v>
+        <f>COUNTIF($Q$6:$Q$53,"PC")</f>
+        <v>11</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9203,8 +9259,8 @@
         <v>50</v>
       </c>
       <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <f>COUNTIF($Q$6:$Q$53,"PC+PM")</f>
+        <v>3</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9360,8 +9416,8 @@
         <v>26</v>
       </c>
       <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>2</v>
+        <f>COUNTIF($R$6:$R$53,"*MCU*")</f>
+        <v>3</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -9416,8 +9472,8 @@
         <v>34</v>
       </c>
       <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>3</v>
+        <f>COUNTIF($R$6:$R$53,"*GSM*")</f>
+        <v>4</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -9472,7 +9528,7 @@
         <v>27</v>
       </c>
       <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <f>COUNTIF($R$6:$R$53,"*GPS*")</f>
         <v>1</v>
       </c>
       <c r="W28" s="13"/>
@@ -9526,8 +9582,8 @@
         <v>52</v>
       </c>
       <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>3</v>
+        <f>COUNTIF($R$6:$R$53,"*NG*")</f>
+        <v>4</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9564,7 +9620,7 @@
         <v>32</v>
       </c>
       <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <f>COUNTIF($R$6:$R$53,"*I/O*")</f>
         <v>0</v>
       </c>
       <c r="W30" s="13"/>
@@ -9616,8 +9672,8 @@
         <v>22</v>
       </c>
       <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>5</v>
+        <f>COUNTIF($R$6:$R$53,"*LK*")</f>
+        <v>7</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9658,7 +9714,7 @@
         <v>28</v>
       </c>
       <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <f>COUNTIF($R$6:$R$53,"*MCH*")</f>
         <v>0</v>
       </c>
       <c r="W32" s="13"/>
@@ -9696,8 +9752,8 @@
         <v>47</v>
       </c>
       <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <f>COUNTIF($R$6:$R$53,"*SF*")</f>
+        <v>2</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -9719,22 +9775,34 @@
       <c r="G34" s="37"/>
       <c r="H34" s="1"/>
       <c r="I34" s="51"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="M34" s="39" t="s">
+        <v>124</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="2"/>
+      <c r="O34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="T34" s="13"/>
       <c r="U34" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <f>COUNTIF($R$6:$R$53,"*RTB*")</f>
         <v>0</v>
       </c>
       <c r="W34" s="13"/>
@@ -9788,8 +9856,8 @@
         <v>38</v>
       </c>
       <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <f>COUNTIF($R$6:$R$53,"*NCFW*")</f>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9828,15 +9896,13 @@
         <v>29</v>
       </c>
       <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <f>COUNTIF($R$6:$R$53,"*KL*")</f>
         <v>5</v>
       </c>
       <c r="W36" s="13"/>
     </row>
     <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="58">
         <v>44921</v>
       </c>
@@ -9844,17 +9910,17 @@
       <c r="D37" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="67" t="s">
-        <v>106</v>
+      <c r="E37" s="67">
+        <v>868183034585575</v>
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="37"/>
-      <c r="H37" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="H37" s="1"/>
       <c r="I37" s="51"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
       <c r="N37" s="1"/>
@@ -9864,53 +9930,76 @@
       <c r="R37" s="2"/>
       <c r="S37" s="3"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>22</v>
-      </c>
+      <c r="U37" s="3"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="13"/>
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="54"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="58">
+        <v>44921</v>
+      </c>
       <c r="C38" s="54"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
+      <c r="D38" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="67">
+        <v>868183038478751</v>
+      </c>
       <c r="F38" s="47"/>
       <c r="G38" s="37"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="1"/>
+      <c r="I38" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="K38" s="1"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="L38" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>142</v>
+      </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="2"/>
+      <c r="O38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="S38" s="3"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="13"/>
     </row>
     <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="54"/>
+        <v>32</v>
+      </c>
+      <c r="B39" s="58">
+        <v>44921</v>
+      </c>
       <c r="C39" s="54"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
+      <c r="D39" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>106</v>
+      </c>
       <c r="F39" s="47"/>
       <c r="G39" s="37"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I39" s="51"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -9923,13 +10012,18 @@
       <c r="R39" s="2"/>
       <c r="S39" s="3"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
+      <c r="U39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>29</v>
+      </c>
       <c r="W39" s="13"/>
     </row>
     <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -9950,18 +10044,13 @@
       <c r="R40" s="2"/>
       <c r="S40" s="3"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
+      <c r="U40" s="13"/>
+      <c r="V40" s="15"/>
       <c r="W40" s="13"/>
     </row>
     <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -9982,18 +10071,13 @@
       <c r="R41" s="2"/>
       <c r="S41" s="3"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
-      </c>
+      <c r="U41" s="13"/>
+      <c r="V41" s="15"/>
       <c r="W41" s="13"/>
     </row>
     <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -10014,13 +10098,18 @@
       <c r="R42" s="2"/>
       <c r="S42" s="3"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
+      <c r="U42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V42" s="9">
+        <f>COUNTIF($O$6:$O$53,"*DM*")</f>
+        <v>0</v>
+      </c>
       <c r="W42" s="13"/>
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -10041,13 +10130,18 @@
       <c r="R43" s="2"/>
       <c r="S43" s="3"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
+      <c r="U43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V43" s="9">
+        <f>COUNTIF($O$6:$O$53,"*KS*")</f>
+        <v>3</v>
+      </c>
       <c r="W43" s="13"/>
     </row>
     <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -10068,22 +10162,13 @@
       <c r="R44" s="2"/>
       <c r="S44" s="3"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="U44" s="13"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="13"/>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -10104,25 +10189,13 @@
       <c r="R45" s="2"/>
       <c r="S45" s="3"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
+      <c r="U45" s="13"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="13"/>
     </row>
     <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
@@ -10144,24 +10217,21 @@
       <c r="S46" s="3"/>
       <c r="T46" s="13"/>
       <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="V46" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W46" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -10183,24 +10253,24 @@
       <c r="S47" s="3"/>
       <c r="T47" s="13"/>
       <c r="U47" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE",$H$6:$H$302,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE",$H$6:$H$302,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE",$H$6:$H$302,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -10220,29 +10290,26 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="2"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="34">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>3</v>
-      </c>
+      <c r="T48" s="13"/>
       <c r="U48" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE-4G",$H$6:$H$302,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE-4G",$H$6:$H$302,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE-4G",$H$6:$H$302,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
@@ -10262,15 +10329,26 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="2"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="32"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V49" s="9">
+        <f>COUNTIFS($D$6:$D$302,"TG102E",$H$6:$H$302,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <f>COUNTIFS($D$6:$D$302,"TG102E",$H$6:$H$302,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <f>COUNTIFS($D$6:$D$302,"TG102E",$H$6:$H$302,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
+      <c r="A50" s="3">
+        <v>43</v>
       </c>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -10278,10 +10356,10 @@
       <c r="E50" s="38"/>
       <c r="F50" s="47"/>
       <c r="G50" s="37"/>
-      <c r="H50" s="31"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="51"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
       <c r="N50" s="1"/>
@@ -10289,16 +10367,30 @@
       <c r="P50" s="39"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="32"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>3</v>
+      </c>
+      <c r="U50" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V50" s="9">
+        <f>COUNTIFS($D$6:$D$302,"ACT-01",$H$6:$H$302,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <f>COUNTIFS($D$6:$D$302,"ACT-01",$H$6:$H$302,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="9">
+        <f>COUNTIFS($D$6:$D$302,"ACT-01",$H$6:$H$302,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -10317,7 +10409,7 @@
       <c r="P51" s="39"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="9"/>
+      <c r="S51" s="3"/>
       <c r="T51" s="34"/>
       <c r="U51" s="43"/>
       <c r="V51" s="43"/>
@@ -10325,8 +10417,8 @@
       <c r="X51" s="32"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
+      <c r="A52" s="28">
+        <v>45</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -10334,10 +10426,10 @@
       <c r="E52" s="38"/>
       <c r="F52" s="47"/>
       <c r="G52" s="37"/>
-      <c r="H52" s="32"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="51"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
       <c r="L52" s="39"/>
       <c r="M52" s="39"/>
       <c r="N52" s="1"/>
@@ -10345,7 +10437,7 @@
       <c r="P52" s="39"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="32"/>
+      <c r="S52" s="28"/>
       <c r="T52" s="34"/>
       <c r="U52" s="43"/>
       <c r="V52" s="43"/>
@@ -10354,7 +10446,7 @@
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -10362,10 +10454,10 @@
       <c r="E53" s="38"/>
       <c r="F53" s="47"/>
       <c r="G53" s="37"/>
-      <c r="H53" s="32"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="51"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
       <c r="N53" s="1"/>
@@ -10373,7 +10465,7 @@
       <c r="P53" s="39"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="32"/>
+      <c r="S53" s="9"/>
       <c r="T53" s="34"/>
       <c r="U53" s="43"/>
       <c r="V53" s="43"/>
@@ -10382,7 +10474,7 @@
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -10410,7 +10502,7 @@
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
@@ -10430,7 +10522,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="2"/>
       <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
+      <c r="T55" s="34"/>
       <c r="U55" s="43"/>
       <c r="V55" s="43"/>
       <c r="W55" s="43"/>
@@ -10438,7 +10530,7 @@
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -10458,13 +10550,15 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="2"/>
       <c r="S56" s="32"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="32"/>
     </row>
     <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -10484,13 +10578,15 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="2"/>
       <c r="S57" s="32"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="32"/>
     </row>
     <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
@@ -10510,16 +10606,19 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="2"/>
       <c r="S58" s="32"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
     </row>
     <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
       <c r="D59" s="37"/>
       <c r="E59" s="38"/>
-      <c r="F59" s="37"/>
+      <c r="F59" s="47"/>
       <c r="G59" s="37"/>
       <c r="H59" s="32"/>
       <c r="I59" s="51"/>
@@ -10533,16 +10632,19 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="2"/>
       <c r="S59" s="32"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
     </row>
     <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60" s="54"/>
       <c r="C60" s="54"/>
       <c r="D60" s="37"/>
       <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
+      <c r="F60" s="47"/>
       <c r="G60" s="37"/>
       <c r="H60" s="32"/>
       <c r="I60" s="51"/>
@@ -10559,53 +10661,53 @@
     </row>
     <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61" s="54"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
       <c r="H61" s="32"/>
-      <c r="I61" s="52"/>
+      <c r="I61" s="51"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
       <c r="L61" s="39"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="2"/>
       <c r="S61" s="32"/>
     </row>
     <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B62" s="54"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
       <c r="H62" s="32"/>
-      <c r="I62" s="52"/>
+      <c r="I62" s="51"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
       <c r="L62" s="39"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="2"/>
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B63" s="54"/>
       <c r="C63" s="32"/>
@@ -10628,7 +10730,7 @@
     </row>
     <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B64" s="54"/>
       <c r="C64" s="32"/>
@@ -10651,7 +10753,7 @@
     </row>
     <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="32"/>
@@ -10674,263 +10776,302 @@
     </row>
     <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B66" s="54"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B67" s="54"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
     </row>
     <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10942,6 +11083,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10985,39 +11133,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="71"/>
       <c r="I2" s="48"/>
@@ -11062,58 +11210,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -11138,23 +11286,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11206,7 +11354,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11243,7 +11391,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11278,7 +11426,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11313,7 +11461,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11348,7 +11496,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11383,7 +11531,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11418,7 +11566,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11455,7 +11603,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11490,7 +11638,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11525,7 +11673,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11560,7 +11708,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13336,13 +13484,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13354,6 +13495,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13397,41 +13545,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13476,58 +13624,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -13552,23 +13700,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13622,7 +13770,7 @@
         <v>69</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13683,7 +13831,7 @@
         <v>69</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13732,7 +13880,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13789,7 +13937,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13848,7 +13996,7 @@
         <v>69</v>
       </c>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13907,7 +14055,7 @@
         <v>69</v>
       </c>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13966,7 +14114,7 @@
         <v>69</v>
       </c>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -14027,7 +14175,7 @@
         <v>69</v>
       </c>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14086,7 +14234,7 @@
         <v>69</v>
       </c>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14145,7 +14293,7 @@
         <v>69</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14200,7 +14348,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15952,13 +16100,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15970,6 +16111,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16013,41 +16161,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -16092,58 +16240,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -16168,23 +16316,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="91"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="97"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="90"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16210,7 +16358,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -16241,7 +16389,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -16270,7 +16418,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -16299,7 +16447,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -16328,7 +16476,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -16357,7 +16505,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -16386,7 +16534,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -16417,7 +16565,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -16446,7 +16594,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -16475,7 +16623,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16504,7 +16652,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17735,6 +17883,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17746,13 +17901,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Duphonglapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="56" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="147">
   <si>
     <t>STT</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Khởi tạo lại thiết bị</t>
+  </si>
+  <si>
+    <t>TG102LE-4G (7600C1)</t>
   </si>
 </sst>
 </file>
@@ -934,6 +937,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,30 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1318,41 +1321,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1397,58 +1400,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
@@ -1473,23 +1476,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="80" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1521,7 +1524,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="81"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1558,7 +1561,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="81"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1593,7 +1596,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="81"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1628,7 +1631,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="81"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1663,7 +1666,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="81"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1698,7 +1701,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="81"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1733,7 +1736,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="81"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1770,7 +1773,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="81"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1805,7 +1808,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="81"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1840,7 +1843,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1869,7 +1872,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3585,13 +3588,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3603,6 +3599,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3646,39 +3649,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3723,58 +3726,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3799,23 +3802,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3847,7 +3850,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3884,7 +3887,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3919,7 +3922,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3948,7 +3951,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3977,7 +3980,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4006,7 +4009,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4035,7 +4038,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4066,7 +4069,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4095,7 +4098,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4124,7 +4127,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4153,7 +4156,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5869,6 +5872,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5880,13 +5890,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5897,8 +5900,2316 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E12"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96"/>
+      <c r="B5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="91"/>
+      <c r="K5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="58">
+        <v>44921</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="67">
+        <v>862649049681910</v>
+      </c>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="58">
+        <v>44921</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="67">
+        <v>862649049678957</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="58">
+        <v>44921</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="67">
+        <v>862649049662589</v>
+      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="58">
+        <v>44921</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="67">
+        <v>862649049689400</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="58">
+        <v>44921</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="67">
+        <v>864424041940211</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="58">
+        <v>44921</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="67">
+        <v>862649049664064</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="58">
+        <v>44921</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="67">
+        <v>862205051174110</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X117"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5930,39 +8241,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6007,58 +8320,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6066,7 +8379,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E5" s="65" t="s">
         <v>43</v>
@@ -6083,23 +8396,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6107,31 +8420,49 @@
         <v>1</v>
       </c>
       <c r="B6" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C6" s="58"/>
+        <v>44896</v>
+      </c>
+      <c r="C6" s="58">
+        <v>44896</v>
+      </c>
       <c r="D6" s="59" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E6" s="67">
-        <v>862649049681910</v>
-      </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+        <v>868183034533138</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="57" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>72</v>
+      </c>
       <c r="J6" s="61"/>
       <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="L6" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>76</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="68"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6144,31 +8475,49 @@
         <v>2</v>
       </c>
       <c r="B7" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C7" s="58"/>
+        <v>44896</v>
+      </c>
+      <c r="C7" s="58">
+        <v>44896</v>
+      </c>
       <c r="D7" s="59" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E7" s="67">
-        <v>862649049678957</v>
-      </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+        <v>868183038538968</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="57" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="60" t="s">
+        <v>72</v>
+      </c>
       <c r="J7" s="61"/>
       <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
+      <c r="L7" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="68"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6179,31 +8528,53 @@
         <v>3</v>
       </c>
       <c r="B8" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C8" s="58"/>
+        <v>44901</v>
+      </c>
+      <c r="C8" s="58">
+        <v>44902</v>
+      </c>
       <c r="D8" s="59" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E8" s="67">
-        <v>862649049662589</v>
-      </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+        <v>860157040208073</v>
+      </c>
+      <c r="F8" s="70"/>
+      <c r="G8" s="57" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="3"/>
+      <c r="I8" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="68"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6214,31 +8585,51 @@
         <v>4</v>
       </c>
       <c r="B9" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C9" s="58"/>
+        <v>44907</v>
+      </c>
+      <c r="C9" s="58">
+        <v>44912</v>
+      </c>
       <c r="D9" s="59" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E9" s="67">
-        <v>862649049689400</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+        <v>868183038557984</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="57" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="I9" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>83</v>
+      </c>
       <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="3"/>
+      <c r="M9" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="68"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6249,31 +8640,53 @@
         <v>5</v>
       </c>
       <c r="B10" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C10" s="58"/>
+        <v>44912</v>
+      </c>
+      <c r="C10" s="58">
+        <v>44912</v>
+      </c>
       <c r="D10" s="59" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E10" s="67">
-        <v>864424041940211</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+        <v>868183033796041</v>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="3"/>
+      <c r="I10" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" s="68"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6288,27 +8701,43 @@
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="59" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E11" s="67">
-        <v>862649049664064</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+        <v>868183034550652</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="3"/>
+      <c r="M11" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="68"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6321,29 +8750,31 @@
       <c r="B12" s="58">
         <v>44921</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="59" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="E12" s="67">
-        <v>862205051174110</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
+        <v>868183038093006</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="64"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6355,26 +8786,48 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="58">
+        <v>44921</v>
+      </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="67">
+        <v>868183033859054</v>
+      </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>121</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6384,10 +8837,16 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="58">
+        <v>44921</v>
+      </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="D14" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="67">
+        <v>868183038527797</v>
+      </c>
       <c r="F14" s="47"/>
       <c r="G14" s="37"/>
       <c r="H14" s="47"/>
@@ -6403,7 +8862,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6413,26 +8872,48 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="58">
+        <v>44921</v>
+      </c>
       <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="67">
+        <v>868183038077983</v>
+      </c>
       <c r="F15" s="47"/>
       <c r="G15" s="37"/>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6442,26 +8923,48 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="58">
+        <v>44921</v>
+      </c>
       <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="67">
+        <v>868183037843112</v>
+      </c>
       <c r="F16" s="47"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="39" t="s">
+        <v>114</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6471,22 +8974,45 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="58">
+        <v>44921</v>
+      </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="67">
+        <v>868183037858763</v>
+      </c>
       <c r="F17" s="47"/>
       <c r="G17" s="37"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
+      <c r="I17" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="82" t="s">
+        <v>83</v>
+      </c>
       <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="M17" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="66"/>
@@ -6497,23 +9023,45 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="58">
+        <v>44921</v>
+      </c>
       <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="67">
+        <v>868183033792552</v>
+      </c>
       <c r="F18" s="47"/>
       <c r="G18" s="37"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="M18" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -6524,23 +9072,45 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="58">
+        <v>44921</v>
+      </c>
       <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="67">
+        <v>860157040195445</v>
+      </c>
       <c r="F19" s="47"/>
       <c r="G19" s="37"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="M19" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
+      <c r="O19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="65" t="s">
@@ -6555,31 +9125,53 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="58">
+        <v>44921</v>
+      </c>
       <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="67">
+        <v>868183034533989</v>
+      </c>
       <c r="F20" s="47"/>
       <c r="G20" s="37"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="M20" s="39" t="s">
+        <v>145</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
+      <c r="O20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <f>COUNTIF($Q$6:$Q$53,"PM")</f>
+        <v>8</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6587,31 +9179,53 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="58">
+        <v>44921</v>
+      </c>
       <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="67">
+        <v>868183038608902</v>
+      </c>
       <c r="F21" s="47"/>
       <c r="G21" s="37"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="M21" s="39" t="s">
+        <v>124</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
+      <c r="O21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <f>COUNTIF($Q$6:$Q$53,"PC")</f>
+        <v>11</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6619,10 +9233,16 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="58">
+        <v>44921</v>
+      </c>
       <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="D22" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="67">
+        <v>868183037808321</v>
+      </c>
       <c r="F22" s="47"/>
       <c r="G22" s="37"/>
       <c r="H22" s="9"/>
@@ -6642,8 +9262,8 @@
         <v>50</v>
       </c>
       <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <f>COUNTIF($Q$6:$Q$53,"PC+PM")</f>
+        <v>3</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6651,10 +9271,16 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="58">
+        <v>44921</v>
+      </c>
       <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="D23" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="67">
+        <v>868183037811648</v>
+      </c>
       <c r="F23" s="47"/>
       <c r="G23" s="37"/>
       <c r="H23" s="9"/>
@@ -6678,10 +9304,16 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="58">
+        <v>44921</v>
+      </c>
       <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="D24" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="67">
+        <v>868183038090465</v>
+      </c>
       <c r="F24" s="47"/>
       <c r="G24" s="37"/>
       <c r="H24" s="9"/>
@@ -6705,10 +9337,16 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="58">
+        <v>44921</v>
+      </c>
       <c r="C25" s="54"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="D25" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="67">
+        <v>862205051175411</v>
+      </c>
       <c r="F25" s="47"/>
       <c r="G25" s="37"/>
       <c r="H25" s="9"/>
@@ -6736,31 +9374,53 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="58">
+        <v>44921</v>
+      </c>
       <c r="C26" s="54"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="D26" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="67">
+        <v>868183038077959</v>
+      </c>
       <c r="F26" s="47"/>
       <c r="G26" s="37"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
+      <c r="I26" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="M26" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
+      <c r="O26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="13"/>
       <c r="U26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <f>COUNTIF($R$6:$R$53,"*MCU*")</f>
+        <v>3</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -6768,31 +9428,55 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="58">
+        <v>44921</v>
+      </c>
       <c r="C27" s="54"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="67">
+        <v>868183035889471</v>
+      </c>
       <c r="F27" s="47"/>
       <c r="G27" s="37"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="I27" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="2"/>
+      <c r="O27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="13"/>
       <c r="U27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <f>COUNTIF($R$6:$R$53,"*GSM*")</f>
+        <v>4</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -6800,31 +9484,55 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="58">
+        <v>44921</v>
+      </c>
       <c r="C28" s="54"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
+      <c r="D28" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="67">
+        <v>868183037834327</v>
+      </c>
       <c r="F28" s="47"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="L28" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="2"/>
+      <c r="O28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="13"/>
       <c r="U28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <f>COUNTIF($R$6:$R$53,"*GPS*")</f>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -6832,31 +9540,53 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="58">
+        <v>44921</v>
+      </c>
       <c r="C29" s="54"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
+      <c r="D29" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="67">
+        <v>868183034523931</v>
+      </c>
       <c r="F29" s="47"/>
       <c r="G29" s="37"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="1"/>
+      <c r="I29" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="L29" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>132</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2"/>
+      <c r="O29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="13"/>
       <c r="U29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <f>COUNTIF($R$6:$R$53,"*NG*")</f>
+        <v>4</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -6864,10 +9594,16 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="54"/>
+      <c r="B30" s="58">
+        <v>44921</v>
+      </c>
       <c r="C30" s="54"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
+      <c r="D30" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="67">
+        <v>868345035660232</v>
+      </c>
       <c r="F30" s="47"/>
       <c r="G30" s="37"/>
       <c r="H30" s="1"/>
@@ -6887,7 +9623,7 @@
         <v>32</v>
       </c>
       <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <f>COUNTIF($R$6:$R$53,"*I/O*")</f>
         <v>0</v>
       </c>
       <c r="W30" s="13"/>
@@ -6896,31 +9632,51 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="58">
+        <v>44921</v>
+      </c>
       <c r="C31" s="54"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
+      <c r="D31" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="67">
+        <v>868183034595848</v>
+      </c>
       <c r="F31" s="47"/>
       <c r="G31" s="37"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="1"/>
+      <c r="I31" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="M31" s="39" t="s">
+        <v>130</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="2"/>
+      <c r="O31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S31" s="3"/>
       <c r="T31" s="13"/>
       <c r="U31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <f>COUNTIF($R$6:$R$53,"*LK*")</f>
+        <v>7</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6928,18 +9684,28 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="54"/>
+      <c r="B32" s="58">
+        <v>44921</v>
+      </c>
       <c r="C32" s="54"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
+      <c r="D32" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="67">
+        <v>868183033803870</v>
+      </c>
       <c r="F32" s="47"/>
       <c r="G32" s="37"/>
       <c r="H32" s="1"/>
       <c r="I32" s="51"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
+      <c r="M32" s="39" t="s">
+        <v>137</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="39"/>
@@ -6951,7 +9717,7 @@
         <v>28</v>
       </c>
       <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <f>COUNTIF($R$6:$R$53,"*MCH*")</f>
         <v>0</v>
       </c>
       <c r="W32" s="13"/>
@@ -6960,10 +9726,16 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="58">
+        <v>44921</v>
+      </c>
       <c r="C33" s="54"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
+      <c r="D33" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="67">
+        <v>862205051296583</v>
+      </c>
       <c r="F33" s="47"/>
       <c r="G33" s="37"/>
       <c r="H33" s="1"/>
@@ -6983,8 +9755,8 @@
         <v>47</v>
       </c>
       <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <f>COUNTIF($R$6:$R$53,"*SF*")</f>
+        <v>2</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -6992,30 +9764,48 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="58">
+        <v>44921</v>
+      </c>
       <c r="C34" s="54"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
+      <c r="D34" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="67">
+        <v>868183037823833</v>
+      </c>
       <c r="F34" s="47"/>
       <c r="G34" s="37"/>
       <c r="H34" s="1"/>
       <c r="I34" s="51"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="M34" s="39" t="s">
+        <v>124</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="2"/>
+      <c r="O34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="T34" s="13"/>
       <c r="U34" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <f>COUNTIF($R$6:$R$53,"*RTB*")</f>
         <v>0</v>
       </c>
       <c r="W34" s="13"/>
@@ -7024,31 +9814,53 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="58">
+        <v>44921</v>
+      </c>
       <c r="C35" s="54"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
+      <c r="D35" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="67">
+        <v>867717030431424</v>
+      </c>
       <c r="F35" s="47"/>
       <c r="G35" s="37"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
+      <c r="M35" s="39" t="s">
+        <v>127</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="2"/>
+      <c r="O35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S35" s="3"/>
       <c r="T35" s="13"/>
       <c r="U35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <f>COUNTIF($R$6:$R$53,"*NCFW*")</f>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7056,16 +9868,24 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="58">
+        <v>44921</v>
+      </c>
       <c r="C36" s="54"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="D36" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="67">
+        <v>867857039936278</v>
+      </c>
       <c r="F36" s="47"/>
       <c r="G36" s="37"/>
       <c r="H36" s="1"/>
       <c r="I36" s="51"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
       <c r="N36" s="1"/>
@@ -7079,25 +9899,31 @@
         <v>29</v>
       </c>
       <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <f>COUNTIF($R$6:$R$53,"*KL*")</f>
+        <v>5</v>
       </c>
       <c r="W36" s="13"/>
     </row>
     <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="54"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="58">
+        <v>44921</v>
+      </c>
       <c r="C37" s="54"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
+      <c r="D37" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="67">
+        <v>868183034585575</v>
+      </c>
       <c r="F37" s="47"/>
       <c r="G37" s="37"/>
       <c r="H37" s="1"/>
       <c r="I37" s="51"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
       <c r="N37" s="1"/>
@@ -7107,53 +9933,76 @@
       <c r="R37" s="2"/>
       <c r="S37" s="3"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>0</v>
-      </c>
+      <c r="U37" s="3"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="13"/>
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="54"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="58">
+        <v>44921</v>
+      </c>
       <c r="C38" s="54"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
+      <c r="D38" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="67">
+        <v>868183038478751</v>
+      </c>
       <c r="F38" s="47"/>
       <c r="G38" s="37"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="1"/>
+      <c r="I38" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="K38" s="1"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="L38" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>142</v>
+      </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="2"/>
+      <c r="O38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="S38" s="3"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="13"/>
     </row>
     <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="54"/>
+        <v>32</v>
+      </c>
+      <c r="B39" s="58">
+        <v>44921</v>
+      </c>
       <c r="C39" s="54"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
+      <c r="D39" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>106</v>
+      </c>
       <c r="F39" s="47"/>
       <c r="G39" s="37"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I39" s="51"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -7166,13 +10015,18 @@
       <c r="R39" s="2"/>
       <c r="S39" s="3"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
+      <c r="U39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>29</v>
+      </c>
       <c r="W39" s="13"/>
     </row>
     <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -7193,18 +10047,13 @@
       <c r="R40" s="2"/>
       <c r="S40" s="3"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
+      <c r="U40" s="13"/>
+      <c r="V40" s="15"/>
       <c r="W40" s="13"/>
     </row>
     <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -7225,18 +10074,13 @@
       <c r="R41" s="2"/>
       <c r="S41" s="3"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
+      <c r="U41" s="13"/>
+      <c r="V41" s="15"/>
       <c r="W41" s="13"/>
     </row>
     <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -7257,13 +10101,18 @@
       <c r="R42" s="2"/>
       <c r="S42" s="3"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
+      <c r="U42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V42" s="9">
+        <f>COUNTIF($O$6:$O$53,"*DM*")</f>
+        <v>0</v>
+      </c>
       <c r="W42" s="13"/>
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -7284,13 +10133,18 @@
       <c r="R43" s="2"/>
       <c r="S43" s="3"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
+      <c r="U43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V43" s="9">
+        <f>COUNTIF($O$6:$O$53,"*KS*")</f>
+        <v>3</v>
+      </c>
       <c r="W43" s="13"/>
     </row>
     <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -7311,22 +10165,13 @@
       <c r="R44" s="2"/>
       <c r="S44" s="3"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="U44" s="13"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="13"/>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -7347,25 +10192,13 @@
       <c r="R45" s="2"/>
       <c r="S45" s="3"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
+      <c r="U45" s="13"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="13"/>
     </row>
     <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
@@ -7387,24 +10220,21 @@
       <c r="S46" s="3"/>
       <c r="T46" s="13"/>
       <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="V46" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W46" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -7426,24 +10256,24 @@
       <c r="S47" s="3"/>
       <c r="T47" s="13"/>
       <c r="U47" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE",$H$6:$H$302,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE",$H$6:$H$302,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE",$H$6:$H$302,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -7463,29 +10293,26 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="2"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="34">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
+      <c r="T48" s="13"/>
       <c r="U48" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE-4G",$H$6:$H$302,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE-4G",$H$6:$H$302,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$302,"TG102LE-4G",$H$6:$H$302,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
@@ -7505,15 +10332,26 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="2"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="32"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V49" s="9">
+        <f>COUNTIFS($D$6:$D$302,"TG102E",$H$6:$H$302,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <f>COUNTIFS($D$6:$D$302,"TG102E",$H$6:$H$302,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <f>COUNTIFS($D$6:$D$302,"TG102E",$H$6:$H$302,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
+      <c r="A50" s="3">
+        <v>43</v>
       </c>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -7521,10 +10359,10 @@
       <c r="E50" s="38"/>
       <c r="F50" s="47"/>
       <c r="G50" s="37"/>
-      <c r="H50" s="31"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="51"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
       <c r="N50" s="1"/>
@@ -7532,16 +10370,30 @@
       <c r="P50" s="39"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="32"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>3</v>
+      </c>
+      <c r="U50" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V50" s="9">
+        <f>COUNTIFS($D$6:$D$302,"ACT-01",$H$6:$H$302,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <f>COUNTIFS($D$6:$D$302,"ACT-01",$H$6:$H$302,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="9">
+        <f>COUNTIFS($D$6:$D$302,"ACT-01",$H$6:$H$302,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -7560,7 +10412,7 @@
       <c r="P51" s="39"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="9"/>
+      <c r="S51" s="3"/>
       <c r="T51" s="34"/>
       <c r="U51" s="43"/>
       <c r="V51" s="43"/>
@@ -7568,8 +10420,8 @@
       <c r="X51" s="32"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
+      <c r="A52" s="28">
+        <v>45</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -7577,10 +10429,10 @@
       <c r="E52" s="38"/>
       <c r="F52" s="47"/>
       <c r="G52" s="37"/>
-      <c r="H52" s="32"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="51"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
       <c r="L52" s="39"/>
       <c r="M52" s="39"/>
       <c r="N52" s="1"/>
@@ -7588,7 +10440,7 @@
       <c r="P52" s="39"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="32"/>
+      <c r="S52" s="28"/>
       <c r="T52" s="34"/>
       <c r="U52" s="43"/>
       <c r="V52" s="43"/>
@@ -7597,7 +10449,7 @@
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -7605,10 +10457,10 @@
       <c r="E53" s="38"/>
       <c r="F53" s="47"/>
       <c r="G53" s="37"/>
-      <c r="H53" s="32"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="51"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
       <c r="N53" s="1"/>
@@ -7616,7 +10468,7 @@
       <c r="P53" s="39"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="32"/>
+      <c r="S53" s="9"/>
       <c r="T53" s="34"/>
       <c r="U53" s="43"/>
       <c r="V53" s="43"/>
@@ -7625,7 +10477,7 @@
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -7653,2855 +10505,6 @@
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>51</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="32"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>52</v>
-      </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="32"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>53</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="32"/>
-    </row>
-    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>54</v>
-      </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="32"/>
-    </row>
-    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>55</v>
-      </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="32"/>
-    </row>
-    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>56</v>
-      </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-    </row>
-    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>57</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-    </row>
-    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>58</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-    </row>
-    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>59</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-    </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X117"/>
-  <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="53" style="19" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="45"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="45"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="58">
-        <v>44896</v>
-      </c>
-      <c r="C6" s="58">
-        <v>44896</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="67">
-        <v>868183034533138</v>
-      </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="68"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="66"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="58">
-        <v>44896</v>
-      </c>
-      <c r="C7" s="58">
-        <v>44896</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="67">
-        <v>868183038538968</v>
-      </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="66"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="58">
-        <v>44901</v>
-      </c>
-      <c r="C8" s="58">
-        <v>44902</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="67">
-        <v>860157040208073</v>
-      </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="68"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="66"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="58">
-        <v>44907</v>
-      </c>
-      <c r="C9" s="58">
-        <v>44912</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="67">
-        <v>868183038557984</v>
-      </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="68"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="66"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="58">
-        <v>44912</v>
-      </c>
-      <c r="C10" s="58">
-        <v>44912</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="67">
-        <v>868183033796041</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="R10" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" s="68"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="66"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="67">
-        <v>868183034550652</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q11" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="66"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="67">
-        <v>868183038093006</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="66"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="67">
-        <v>868183033859054</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="66"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="67">
-        <v>868183038527797</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="66"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="67">
-        <v>868183038077983</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="66"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="67">
-        <v>868183037843112</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="66"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="67">
-        <v>868183037858763</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="66"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="67">
-        <v>868183033792552</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="67">
-        <v>860157040195445</v>
-      </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="46"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="67">
-        <v>868183034533989</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$53,"PM")</f>
-        <v>8</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="67">
-        <v>868183038608902</v>
-      </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$53,"PC")</f>
-        <v>11</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="67">
-        <v>868183037808321</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$53,"PC+PM")</f>
-        <v>3</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="67">
-        <v>868183037811648</v>
-      </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="67">
-        <v>868183038090465</v>
-      </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="67">
-        <v>862205051175411</v>
-      </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="46"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="67">
-        <v>868183038077959</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P26" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$53,"*MCU*")</f>
-        <v>3</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="67">
-        <v>868183035889471</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P27" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$53,"*GSM*")</f>
-        <v>4</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="67">
-        <v>868183037834327</v>
-      </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P28" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$53,"*GPS*")</f>
-        <v>1</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="67">
-        <v>868183034523931</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P29" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$53,"*NG*")</f>
-        <v>4</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="67">
-        <v>868345035660232</v>
-      </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$53,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="67">
-        <v>868183034595848</v>
-      </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P31" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$53,"*LK*")</f>
-        <v>7</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="67">
-        <v>868183033803870</v>
-      </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$53,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="67">
-        <v>862205051296583</v>
-      </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$53,"*SF*")</f>
-        <v>2</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="67">
-        <v>868183037823833</v>
-      </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P34" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$53,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="67">
-        <v>867717030431424</v>
-      </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P35" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$53,"*NCFW*")</f>
-        <v>3</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="67">
-        <v>867857039936278</v>
-      </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$53,"*KL*")</f>
-        <v>5</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="67">
-        <v>868183034585575</v>
-      </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="67">
-        <v>868183038478751</v>
-      </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P38" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>32</v>
-      </c>
-      <c r="B39" s="58">
-        <v>44921</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" s="51"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V39" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>29</v>
-      </c>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>33</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>34</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>35</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V42" s="9">
-        <f>COUNTIF($O$6:$O$53,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>36</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V43" s="9">
-        <f>COUNTIF($O$6:$O$53,"*KS*")</f>
-        <v>3</v>
-      </c>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>37</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="13"/>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>38</v>
-      </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="13"/>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>39</v>
-      </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V46" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W46" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X46" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>40</v>
-      </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$302,"TG102LE",$H$6:$H$302,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$302,"TG102LE",$H$6:$H$302,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$302,"TG102LE",$H$6:$H$302,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>41</v>
-      </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$302,"TG102LE-4G",$H$6:$H$302,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$302,"TG102LE-4G",$H$6:$H$302,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$302,"TG102LE-4G",$H$6:$H$302,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>42</v>
-      </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V49" s="9">
-        <f>COUNTIFS($D$6:$D$302,"TG102E",$H$6:$H$302,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W49" s="9">
-        <f>COUNTIFS($D$6:$D$302,"TG102E",$H$6:$H$302,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X49" s="9">
-        <f>COUNTIFS($D$6:$D$302,"TG102E",$H$6:$H$302,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>43</v>
-      </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="34">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>3</v>
-      </c>
-      <c r="U50" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V50" s="9">
-        <f>COUNTIFS($D$6:$D$302,"ACT-01",$H$6:$H$302,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W50" s="9">
-        <f>COUNTIFS($D$6:$D$302,"ACT-01",$H$6:$H$302,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X50" s="9">
-        <f>COUNTIFS($D$6:$D$302,"ACT-01",$H$6:$H$302,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>44</v>
-      </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
-        <v>45</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>46</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>47</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
         <v>48</v>
       </c>
       <c r="B55" s="54"/>
@@ -11072,6 +11075,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11083,13 +11093,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11133,39 +11136,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="71"/>
       <c r="I2" s="48"/>
@@ -11210,58 +11213,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -11286,23 +11289,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11354,7 +11357,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11391,7 +11394,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11426,7 +11429,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11461,7 +11464,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11496,7 +11499,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11531,7 +11534,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11566,7 +11569,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11603,7 +11606,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11638,7 +11641,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11673,7 +11676,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11708,7 +11711,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13484,6 +13487,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13495,13 +13505,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13545,41 +13548,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13624,58 +13627,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -13700,23 +13703,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13770,7 +13773,7 @@
         <v>69</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13831,7 +13834,7 @@
         <v>69</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13880,7 +13883,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13937,7 +13940,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13996,7 +13999,7 @@
         <v>69</v>
       </c>
       <c r="T10" s="66"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14055,7 +14058,7 @@
         <v>69</v>
       </c>
       <c r="T11" s="66"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14114,7 +14117,7 @@
         <v>69</v>
       </c>
       <c r="T12" s="66"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -14175,7 +14178,7 @@
         <v>69</v>
       </c>
       <c r="T13" s="66"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14234,7 +14237,7 @@
         <v>69</v>
       </c>
       <c r="T14" s="66"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14293,7 +14296,7 @@
         <v>69</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14348,7 +14351,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16100,6 +16103,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16111,13 +16121,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16161,41 +16164,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -16240,58 +16243,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -16316,23 +16319,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="83"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="91"/>
       <c r="P5" s="97"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16358,7 +16361,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -16389,7 +16392,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="92"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -16418,7 +16421,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="92"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -16447,7 +16450,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="92"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -16476,7 +16479,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="92"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -16505,7 +16508,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="92"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -16534,7 +16537,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -16565,7 +16568,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -16594,7 +16597,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="92"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -16623,7 +16626,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="92"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16652,7 +16655,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="93"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17883,13 +17886,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17901,6 +17897,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
